--- a/com.crm.demo/src/test/resources/TestData/TestExcel.xlsx
+++ b/com.crm.demo/src/test/resources/TestData/TestExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" state="visible" r:id="rId2"/>
@@ -313,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,6 +348,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -403,7 +407,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.17"/>
@@ -413,12 +417,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -635,9 +639,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -853,6 +857,9 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="9"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -871,8 +878,8 @@
   </sheetPr>
   <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,20 +894,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -943,16 +950,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="E6" s="5" t="n">
@@ -961,7 +968,7 @@
       <c r="F6" s="5" t="n">
         <v>9876543210</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -987,22 +994,22 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1040,16 +1047,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="12" t="n">
         <v>1200</v>
       </c>
       <c r="E12" s="5" t="n">
@@ -1058,16 +1065,16 @@
       <c r="F12" s="5" t="n">
         <v>9876543210</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="13" t="s">
         <v>16</v>
       </c>
     </row>

--- a/com.crm.demo/src/test/resources/TestData/TestExcel.xlsx
+++ b/com.crm.demo/src/test/resources/TestData/TestExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" state="visible" r:id="rId2"/>
@@ -313,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,6 +380,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -401,7 +405,7 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -876,9 +880,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1078,6 +1082,9 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="17"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/com.crm.demo/src/test/resources/TestData/TestExcel.xlsx
+++ b/com.crm.demo/src/test/resources/TestData/TestExcel.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/com.crm.demo/src/test/resources/TestData/TestExcel.xlsx
+++ b/com.crm.demo/src/test/resources/TestData/TestExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t xml:space="preserve">SI.No.</t>
   </si>
@@ -78,31 +78,52 @@
     <t xml:space="preserve">Tc_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
     <t xml:space="preserve">LE_01</t>
   </si>
   <si>
+    <t xml:space="preserve">robinhood@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
     <t xml:space="preserve">LE_02</t>
   </si>
   <si>
     <t xml:space="preserve">robin@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Mailing City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mailing State</t>
+  </si>
+  <si>
     <t xml:space="preserve">LE_03</t>
   </si>
   <si>
+    <t xml:space="preserve">Robin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hood2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robin2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolkata</t>
+  </si>
+  <si>
     <t xml:space="preserve">Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mailing City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mailing State</t>
   </si>
   <si>
     <t xml:space="preserve">LE_04</t>
@@ -160,10 +181,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -201,6 +223,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -216,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -261,6 +296,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
@@ -313,7 +355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,6 +380,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,7 +392,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,27 +420,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,7 +516,7 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -484,7 +546,7 @@
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="3"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
@@ -511,7 +573,7 @@
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="5"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
@@ -548,7 +610,7 @@
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -583,7 +645,7 @@
       <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <v>1200</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -643,10 +705,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,11 +716,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -689,7 +752,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -697,8 +760,8 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -727,16 +790,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
@@ -750,8 +813,8 @@
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -778,33 +841,43 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -829,18 +902,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -852,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -862,9 +935,12 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="9"/>
+      <c r="D17" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="robinhood@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -902,68 +978,68 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
+      <c r="A2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="n">
+      <c r="C6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="17" t="n">
         <v>1200</v>
       </c>
       <c r="E6" s="5" t="n">
@@ -972,95 +1048,95 @@
       <c r="F6" s="5" t="n">
         <v>9876543210</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>38</v>
+      <c r="G6" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="17" t="n">
         <v>1200</v>
       </c>
       <c r="E12" s="5" t="n">
@@ -1069,21 +1145,21 @@
       <c r="F12" s="5" t="n">
         <v>9876543210</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="17"/>
+      <c r="G18" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
